--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lc82007\Documents\UiPath\Observabilidade_001_AgentZabbix\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AE7617-EF0A-413F-BCE9-B507A7C10EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B240CA4-079B-478E-B413-4564BDEDF8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -217,13 +217,19 @@
   </si>
   <si>
     <t>sc start "Zabbix Agent"</t>
+  </si>
+  <si>
+    <t>C:\Users\[Usuario]\Saque e Pague\Saque e Pague - Zabbix ATM - 5 - BR</t>
+  </si>
+  <si>
+    <t>rpa@saqueepague.com.br</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -247,6 +253,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -265,10 +277,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -278,8 +291,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -595,7 +610,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -742,11 +757,17 @@
       <c r="A21" t="s">
         <v>58</v>
       </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" t="s">
         <v>59</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
@@ -1733,8 +1754,11 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B23" r:id="rId1" xr:uid="{BB0FCE53-0B85-45E9-B511-BC7F0C52A9AD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Calibri"&amp;11&amp;K317100 Classificação: Interna&amp;1#_x000D_</oddHeader>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;1&amp;KFFFFFF d8c2fa7e-ad4f-43e2-8e5d-8becd65c46ce</oddFooter>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lc82007\Documents\UiPath\Observabilidade_001_AgentZabbix\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B240CA4-079B-478E-B413-4564BDEDF8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C098B9-CC46-4854-8A94-EB50CC80FE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="2235" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -219,10 +219,10 @@
     <t>sc start "Zabbix Agent"</t>
   </si>
   <si>
-    <t>C:\Users\[Usuario]\Saque e Pague\Saque e Pague - Zabbix ATM - 5 - BR</t>
-  </si>
-  <si>
     <t>rpa@saqueepague.com.br</t>
+  </si>
+  <si>
+    <t>C:\Users\[usuario]\Documents\Tz0\Tnet Zabbix</t>
   </si>
 </sst>
 </file>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -758,7 +758,7 @@
         <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
@@ -767,7 +767,7 @@
         <v>59</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
